--- a/data/nut/uk_vitamin_data.xlsx
+++ b/data/nut/uk_vitamin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/ghg/data/nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D51DD1-40FA-0941-BB0F-FEEA365E8793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF54FB7-7A01-6943-AE8B-0AF5DA45BE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2200" windowWidth="27640" windowHeight="16940" xr2:uid="{6EC324D1-8D18-1043-AC0B-DFCA1AA26B36}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="206">
   <si>
     <t>Food Code</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t>1.00</t>
+  </si>
+  <si>
+    <t>04.053</t>
+  </si>
+  <si>
+    <t>Mussel, blue, raw</t>
   </si>
 </sst>
 </file>
@@ -699,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -737,6 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5009A3-981F-2E4B-93F1-FDF59C5FA1C6}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2091,6 +2098,53 @@
         <v>192</v>
       </c>
     </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="14">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="R15" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="V15" s="14">
+        <v>25</v>
+      </c>
+      <c r="W15" s="14">
+        <v>42</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nut/uk_vitamin_data.xlsx
+++ b/data/nut/uk_vitamin_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/ghg/data/nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF54FB7-7A01-6943-AE8B-0AF5DA45BE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9682D9-1158-5A4F-8C67-82B7C18D601E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2200" windowWidth="27640" windowHeight="16940" xr2:uid="{6EC324D1-8D18-1043-AC0B-DFCA1AA26B36}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{6EC324D1-8D18-1043-AC0B-DFCA1AA26B36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vitamins" sheetId="2" r:id="rId1"/>
+    <sheet name="minerals" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="218">
   <si>
     <t>Food Code</t>
   </si>
@@ -653,6 +654,42 @@
   </si>
   <si>
     <t>Mussel, blue, raw</t>
+  </si>
+  <si>
+    <t>Sodium (mg)</t>
+  </si>
+  <si>
+    <t>Potassium (mg)</t>
+  </si>
+  <si>
+    <t>Calcium (mg)</t>
+  </si>
+  <si>
+    <t>Magnesium (mg)</t>
+  </si>
+  <si>
+    <t>Phosphorus (mg)</t>
+  </si>
+  <si>
+    <t>Iron (mg)</t>
+  </si>
+  <si>
+    <t>Copper (mg)</t>
+  </si>
+  <si>
+    <t>Zinc (mg)</t>
+  </si>
+  <si>
+    <t>Chloride (mg)</t>
+  </si>
+  <si>
+    <t>Manganese (mg)</t>
+  </si>
+  <si>
+    <t>Selenium (µg)</t>
+  </si>
+  <si>
+    <t>Iodine (µg)</t>
   </si>
 </sst>
 </file>
@@ -705,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -744,6 +781,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,10 +1110,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5009A3-981F-2E4B-93F1-FDF59C5FA1C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30964E19-C73F-314F-94D2-D5AEF9585EE4}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
@@ -2148,4 +2201,981 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5009A3-981F-2E4B-93F1-FDF59C5FA1C6}">
+  <dimension ref="A1:Z15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="22" max="26" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>91</v>
+      </c>
+      <c r="K2">
+        <v>322</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>169</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>0.02</v>
+      </c>
+      <c r="Q2">
+        <v>0.3</v>
+      </c>
+      <c r="R2">
+        <v>165</v>
+      </c>
+      <c r="S2">
+        <v>0.01</v>
+      </c>
+      <c r="T2">
+        <v>23</v>
+      </c>
+      <c r="U2">
+        <v>196</v>
+      </c>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="20"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <v>315</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>163</v>
+      </c>
+      <c r="O3">
+        <v>0.12</v>
+      </c>
+      <c r="P3">
+        <v>0.02</v>
+      </c>
+      <c r="Q3">
+        <v>0.3</v>
+      </c>
+      <c r="R3">
+        <v>110</v>
+      </c>
+      <c r="S3">
+        <v>0.01</v>
+      </c>
+      <c r="T3">
+        <v>34</v>
+      </c>
+      <c r="U3">
+        <v>320</v>
+      </c>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="20"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4">
+        <v>120</v>
+      </c>
+      <c r="K4">
+        <v>320</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>230</v>
+      </c>
+      <c r="O4">
+        <v>1.2</v>
+      </c>
+      <c r="P4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.9</v>
+      </c>
+      <c r="R4">
+        <v>170</v>
+      </c>
+      <c r="S4">
+        <v>0.04</v>
+      </c>
+      <c r="T4">
+        <v>35</v>
+      </c>
+      <c r="U4">
+        <v>29</v>
+      </c>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>153</v>
+      </c>
+      <c r="K5">
+        <v>335</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>37</v>
+      </c>
+      <c r="N5">
+        <v>220</v>
+      </c>
+      <c r="O5">
+        <v>0.98</v>
+      </c>
+      <c r="P5">
+        <v>0.08</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>250</v>
+      </c>
+      <c r="S5">
+        <v>0.01</v>
+      </c>
+      <c r="T5">
+        <v>42</v>
+      </c>
+      <c r="U5">
+        <v>29</v>
+      </c>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="20"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6">
+        <v>290</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>23</v>
+      </c>
+      <c r="N6">
+        <v>240</v>
+      </c>
+      <c r="O6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.22</v>
+      </c>
+      <c r="Q6">
+        <v>2.5</v>
+      </c>
+      <c r="R6">
+        <v>460</v>
+      </c>
+      <c r="S6">
+        <v>0.19</v>
+      </c>
+      <c r="T6">
+        <v>51</v>
+      </c>
+      <c r="U6">
+        <v>140</v>
+      </c>
+      <c r="V6" s="20"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>68</v>
+      </c>
+      <c r="K7">
+        <v>216</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>120</v>
+      </c>
+      <c r="O7">
+        <v>0.18</v>
+      </c>
+      <c r="P7">
+        <v>0.03</v>
+      </c>
+      <c r="Q7">
+        <v>0.4</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>0.01</v>
+      </c>
+      <c r="T7">
+        <v>27</v>
+      </c>
+      <c r="U7">
+        <v>56</v>
+      </c>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="20"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>215</v>
+      </c>
+      <c r="K8">
+        <v>126</v>
+      </c>
+      <c r="L8">
+        <v>44</v>
+      </c>
+      <c r="M8">
+        <v>28</v>
+      </c>
+      <c r="N8">
+        <v>155</v>
+      </c>
+      <c r="O8">
+        <v>0.7</v>
+      </c>
+      <c r="P8">
+        <v>0.21</v>
+      </c>
+      <c r="Q8">
+        <v>1.2</v>
+      </c>
+      <c r="R8">
+        <v>260</v>
+      </c>
+      <c r="S8">
+        <v>0.04</v>
+      </c>
+      <c r="T8">
+        <v>34</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="20"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>357</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <v>226</v>
+      </c>
+      <c r="O9">
+        <v>0.33</v>
+      </c>
+      <c r="P9">
+        <v>0.05</v>
+      </c>
+      <c r="Q9">
+        <v>0.4</v>
+      </c>
+      <c r="R9">
+        <v>59</v>
+      </c>
+      <c r="S9">
+        <v>0.09</v>
+      </c>
+      <c r="T9">
+        <v>18</v>
+      </c>
+      <c r="U9">
+        <v>12</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="20"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>110</v>
+      </c>
+      <c r="K10">
+        <v>383</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <v>228</v>
+      </c>
+      <c r="O10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.04</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>150</v>
+      </c>
+      <c r="S10">
+        <v>0.01</v>
+      </c>
+      <c r="T10">
+        <v>19</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="20"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>66</v>
+      </c>
+      <c r="K11">
+        <v>444</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>39</v>
+      </c>
+      <c r="N11">
+        <v>266</v>
+      </c>
+      <c r="O11">
+        <v>0.72</v>
+      </c>
+      <c r="P11">
+        <v>0.03</v>
+      </c>
+      <c r="Q11">
+        <v>0.4</v>
+      </c>
+      <c r="R11">
+        <v>120</v>
+      </c>
+      <c r="S11">
+        <v>0.01</v>
+      </c>
+      <c r="T11">
+        <v>93</v>
+      </c>
+      <c r="U11">
+        <v>18</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="20"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12">
+        <v>380</v>
+      </c>
+      <c r="K12">
+        <v>75</v>
+      </c>
+      <c r="L12">
+        <v>130</v>
+      </c>
+      <c r="M12">
+        <v>47</v>
+      </c>
+      <c r="N12">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <v>2.6</v>
+      </c>
+      <c r="P12">
+        <v>0.15</v>
+      </c>
+      <c r="Q12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R12">
+        <v>520</v>
+      </c>
+      <c r="S12">
+        <v>0.15</v>
+      </c>
+      <c r="T12">
+        <v>43</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>161</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <v>150</v>
+      </c>
+      <c r="O13">
+        <v>0.6</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>1.8</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <v>330</v>
+      </c>
+      <c r="K14">
+        <v>260</v>
+      </c>
+      <c r="L14">
+        <v>62</v>
+      </c>
+      <c r="M14">
+        <v>34</v>
+      </c>
+      <c r="N14">
+        <v>260</v>
+      </c>
+      <c r="O14">
+        <v>0.8</v>
+      </c>
+      <c r="P14">
+        <v>1.35</v>
+      </c>
+      <c r="Q14">
+        <v>2.5</v>
+      </c>
+      <c r="R14">
+        <v>530</v>
+      </c>
+      <c r="S14">
+        <v>0.03</v>
+      </c>
+      <c r="T14">
+        <v>54</v>
+      </c>
+      <c r="U14">
+        <v>100</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15">
+        <v>582</v>
+      </c>
+      <c r="K15">
+        <v>145</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>39</v>
+      </c>
+      <c r="N15">
+        <v>145</v>
+      </c>
+      <c r="O15">
+        <v>7.7</v>
+      </c>
+      <c r="P15">
+        <v>0.22</v>
+      </c>
+      <c r="Q15">
+        <v>3.4</v>
+      </c>
+      <c r="T15">
+        <v>46</v>
+      </c>
+      <c r="U15">
+        <v>270</v>
+      </c>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>